--- a/TAB_VT_CAMFRIGO_16OM_PRINCIPAIS_PROBLEMAS.xlsx
+++ b/TAB_VT_CAMFRIGO_16OM_PRINCIPAIS_PROBLEMAS.xlsx
@@ -2,41 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive britointeb\PROGRAMACAO\NOTEBOOKS\STREAMLIT\PJT_CAM_FRIGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F30BB1-6D6A-4FAC-A18F-E289C98D0A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BC6C5B-FE52-4E6C-AFF3-70D817D89744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{9A1805F4-F08B-4746-B0F4-867E6719A9C2}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
   <si>
     <t>OM</t>
   </si>
@@ -101,6 +85,9 @@
     <t> Ampliação da Capacidade: Há um projeto em andamento para substituição das câmaras atuais por novas unidades, já adquiridas. Está atualmente na etapa de projeto da fundação e cobertura.</t>
   </si>
   <si>
+    <t>16º BLog</t>
+  </si>
+  <si>
     <t> Manutenção preventiva e corretiva: Não há empresa contratada para manutenções preventivas ou corretivas;</t>
   </si>
   <si>
@@ -116,6 +103,9 @@
     <t> Reforma da estrutura e substituir equipamentos: Reformar as câmaras existentes para que atenda à demanda de armazenamento de gêneros alimentícios.</t>
   </si>
   <si>
+    <t>11º D Sup</t>
+  </si>
+  <si>
     <t> Isolamento térmico. Isolamento térmico ineficiente.  Falta de manutenção preventiva e corretiva.</t>
   </si>
   <si>
@@ -152,6 +142,9 @@
     <t> Ampliação da Capacidade: Proposta de inserir um container para gêneros congelados.</t>
   </si>
   <si>
+    <t>32º GAC</t>
+  </si>
+  <si>
     <t> Reforma e Ampliação da Capacidade: Reformar as câmaras existentes e aumentar para capacidade que atenda à demanda de armazenamento de gêneros alimentícios.</t>
   </si>
   <si>
@@ -167,6 +160,9 @@
     <t>Inserir equipamento de container refrigerado na área externa</t>
   </si>
   <si>
+    <t>3º Esq C Mec</t>
+  </si>
+  <si>
     <t>Base Administrativa do Quartel-General do Exército</t>
   </si>
   <si>
@@ -176,6 +172,9 @@
     <t> Ampliação da Capacidade.</t>
   </si>
   <si>
+    <t>Ba Adm/C Com GEx</t>
+  </si>
+  <si>
     <t> Capacidade da Câmara: A principal limitação identificada é o tamanho da câmara, que não atende à demanda mensal necessária, segundo dados fornecidos pela OM.</t>
   </si>
   <si>
@@ -188,6 +187,9 @@
     <t>Gabinete do Comandante do Exército</t>
   </si>
   <si>
+    <t>Gab Cmt Ex</t>
+  </si>
+  <si>
     <t>Batalhão de Polícia do Exército de Brasília</t>
   </si>
   <si>
@@ -215,6 +217,9 @@
     <t> Reforma: Proposta de reforma da estrutura existente e substituição dos equipamentos;</t>
   </si>
   <si>
+    <t>Ba Adm Ap/ CMP</t>
+  </si>
+  <si>
     <t> Isolamento térmico comprometido, há sinais de infiltração nas paredes;  As portas apresentam vedações comprometidas.  Acúmulo de Gelo: Unidade evaporadora e condensadora com acúmulo de gelo;</t>
   </si>
   <si>
@@ -233,6 +238,9 @@
     <t>2º Centro de Geoinformação</t>
   </si>
   <si>
+    <t>2º CGeo</t>
+  </si>
+  <si>
     <t> Capacidade da Câmara: A principal limitação identificada é o tamanho da câmara, que não atende à demanda mensal necessária, segundo dados fornecidos pela OM. E para solucionar o problema são utilizadas as câmaras frigoríficas presentes no depósito;  Isolamento térmico ineficiente;  Acúmulo de gelo na tubulação.</t>
   </si>
   <si>
@@ -248,6 +256,9 @@
     <t> Acúmulo de gelo na tubulação da unidade evaporadora;</t>
   </si>
   <si>
+    <t>1º RCGd</t>
+  </si>
+  <si>
     <t> Ampliação da Capacidade: Aumentar a capacidade instalando um container refrigerado para suprir a demanda.</t>
   </si>
   <si>
@@ -261,17 +272,40 @@
   </si>
   <si>
     <t>- Realizar menutenção corretiva tomando em considerações esses componentes.  Proceder com a ampliação das câmaras frigoríficas dos congelados e dos refrigerados para atender a demanda.  Treinamento e orientação com a equipe responsável.</t>
+  </si>
+  <si>
+    <t>OM NOME</t>
+  </si>
+  <si>
+    <t>HMAB</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t>11º GAAAe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -292,18 +326,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -316,7 +368,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -326,44 +378,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -390,32 +442,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -442,24 +476,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,196 +487,197 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C2A74F-D471-4F83-B655-5A4DF9B57093}">
-  <dimension ref="A1:D51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="44.5234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="196.41796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="34.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -673,8 +690,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -687,8 +707,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -698,8 +721,11 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -712,8 +738,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -726,8 +755,11 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -740,8 +772,11 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -754,8 +789,11 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -768,8 +806,11 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -777,13 +818,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -791,13 +835,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -805,15 +852,18 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -822,152 +872,185 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>24</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>24</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>24</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>31</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>36</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -978,377 +1061,462 @@
       <c r="D24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>8</v>
       </c>
       <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
         <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>43</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B32">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B36">
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B37">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B38">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B39">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+      <c r="E39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B41">
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B42">
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B43">
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B44">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B45">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B46">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B48">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B49">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B50">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B51">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="E51" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>